--- a/Dados_Python.xlsx
+++ b/Dados_Python.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados_Python!$B$1:$B$108</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
   <si>
     <t>NameWithOwner</t>
   </si>
@@ -327,9 +327,6 @@
     <t>coleifer/peewee</t>
   </si>
   <si>
-    <t>d2l-ai/d2l-en</t>
-  </si>
-  <si>
     <t>deepinsight/insightface</t>
   </si>
   <si>
@@ -373,6 +370,18 @@
   </si>
   <si>
     <t>Idade do Repositório (anos)</t>
+  </si>
+  <si>
+    <t>LOCS</t>
+  </si>
+  <si>
+    <t>SLOCS</t>
+  </si>
+  <si>
+    <t>Linhas de comentários ou  Vazias</t>
+  </si>
+  <si>
+    <t>d2l-ai/d2l-em</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,9 +1211,10 @@
     <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1230,16 +1240,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
       <c r="K1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1276,8 +1295,18 @@
         <f ca="1">DATEDIF(B2,TODAY(),"Y")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>1074</v>
+      </c>
+      <c r="M2">
+        <v>655</v>
+      </c>
+      <c r="N2">
+        <f>L2-M2</f>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1307,15 +1336,25 @@
         <v>301</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" ca="1" si="1">IF(I3&lt;&gt;"",I3/DATEDIF(B3,TODAY(),"D"),"")</f>
-        <v>8.3011583011583012E-2</v>
+        <f ca="1">IF(I3&lt;&gt;"",I3/DATEDIF(B3,TODAY(),"D"),"")</f>
+        <v>8.2828838745184374E-2</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K66" ca="1" si="2">DATEDIF(B3,TODAY(),"Y")</f>
+        <f t="shared" ref="K3:K66" ca="1" si="1">DATEDIF(B3,TODAY(),"Y")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>146464</v>
+      </c>
+      <c r="M3">
+        <v>121830</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="2">L3-M3</f>
+        <v>24634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1345,15 +1384,25 @@
         <v>13</v>
       </c>
       <c r="J4">
+        <f t="shared" ref="J3:J66" ca="1" si="3">IF(I4&lt;&gt;"",I4/DATEDIF(B4,TODAY(),"D"),"")</f>
+        <v>7.5978959672706016E-3</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6335877862595417E-3</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>359583</v>
+      </c>
+      <c r="M4">
+        <v>219936</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>139647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1384,14 +1433,24 @@
       </c>
       <c r="J5">
         <f ca="1">IF(I5&lt;&gt;"",I5/DATEDIF(B5,TODAY(),"D"),"")</f>
-        <v>7.4775672981056826E-3</v>
+        <v>7.4478649453823239E-3</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>15565</v>
+      </c>
+      <c r="M5">
+        <v>10029</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>5536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1421,15 +1480,25 @@
         <v/>
       </c>
       <c r="J6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>403375</v>
+      </c>
+      <c r="M6">
+        <v>286681</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>116694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1459,15 +1528,25 @@
         <v>10</v>
       </c>
       <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6028110359187923E-3</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6082420448617634E-3</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>17075</v>
+      </c>
+      <c r="M7">
+        <v>10198</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1497,15 +1576,25 @@
         <v>3</v>
       </c>
       <c r="J8">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.5480585614258432E-4</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5724313975749842E-4</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>265336</v>
+      </c>
+      <c r="M8">
+        <v>151207</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>114129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1535,15 +1624,25 @@
         <v/>
       </c>
       <c r="J9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>10191</v>
+      </c>
+      <c r="M9">
+        <v>6223</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1573,15 +1672,25 @@
         <v/>
       </c>
       <c r="J10" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>1526</v>
+      </c>
+      <c r="M10">
+        <v>1404</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1611,15 +1720,25 @@
         <v>9</v>
       </c>
       <c r="J11">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.5487053020961772E-3</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5762081784386614E-3</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>313</v>
+      </c>
+      <c r="M11">
+        <v>180</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1649,15 +1768,25 @@
         <v>2</v>
       </c>
       <c r="J12">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4578624475298673E-4</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4745872450631275E-4</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>16486</v>
+      </c>
+      <c r="M12">
+        <v>12083</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1687,15 +1816,25 @@
         <v>15</v>
       </c>
       <c r="J13">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.8534031413612562E-3</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8864353312302835E-3</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>199495</v>
+      </c>
+      <c r="M13">
+        <v>141303</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>58192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1725,15 +1864,15 @@
         <v/>
       </c>
       <c r="J14" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1763,15 +1902,25 @@
         <v/>
       </c>
       <c r="J15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>135</v>
+      </c>
+      <c r="M15">
+        <v>114</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1801,15 +1950,25 @@
         <v>2</v>
       </c>
       <c r="J16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5094339622641509E-3</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5186028853454822E-3</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>25878</v>
+      </c>
+      <c r="M16">
+        <v>22967</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1839,15 +1998,25 @@
         <v>64</v>
       </c>
       <c r="J17">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.728795245813074E-2</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7325392528424473E-2</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>512446</v>
+      </c>
+      <c r="M17">
+        <v>337911</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>174535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1877,15 +2046,25 @@
         <v>60</v>
       </c>
       <c r="J18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6233766233766232E-2</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6268980477223426E-2</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>655628</v>
+      </c>
+      <c r="M18">
+        <v>504845</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>150783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1915,15 +2094,25 @@
         <v>9</v>
       </c>
       <c r="J19">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0664395229982964E-3</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0748206354629312E-3</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>195763</v>
+      </c>
+      <c r="M19">
+        <v>194902</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1953,15 +2142,25 @@
         <v/>
       </c>
       <c r="J20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>22867</v>
+      </c>
+      <c r="M20">
+        <v>15766</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1991,15 +2190,25 @@
         <v/>
       </c>
       <c r="J21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>76</v>
+      </c>
+      <c r="M21">
+        <v>57</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2029,15 +2238,25 @@
         <v>2</v>
       </c>
       <c r="J22">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7528483786152498E-3</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.76522506619594E-3</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>669</v>
+      </c>
+      <c r="M22">
+        <v>450</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2067,15 +2286,25 @@
         <v/>
       </c>
       <c r="J23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>4651</v>
+      </c>
+      <c r="M23">
+        <v>3339</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2105,15 +2334,25 @@
         <v>2</v>
       </c>
       <c r="J24">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2414649286157666E-3</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2476606363069245E-3</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>2272</v>
+      </c>
+      <c r="M24">
+        <v>1270</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2143,15 +2382,15 @@
         <v/>
       </c>
       <c r="J25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2181,15 +2420,25 @@
         <v>10</v>
       </c>
       <c r="J26">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.7260034904013961E-3</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7873462214411256E-3</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>57732</v>
+      </c>
+      <c r="M26">
+        <v>56954</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2219,15 +2468,25 @@
         <v>18</v>
       </c>
       <c r="J27">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9596814335490289E-3</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9955022488755615E-3</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>369108</v>
+      </c>
+      <c r="M27">
+        <v>225678</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>143430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2257,15 +2516,25 @@
         <v/>
       </c>
       <c r="J28" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>2092</v>
+      </c>
+      <c r="M28">
+        <v>1333</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2295,15 +2564,25 @@
         <v>1</v>
       </c>
       <c r="J29">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0175438596491223E-4</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0571630204657732E-4</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>21193</v>
+      </c>
+      <c r="M29">
+        <v>11777</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2333,15 +2612,25 @@
         <v>7</v>
       </c>
       <c r="J30">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.2671181339352894E-3</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2990158970476911E-3</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>11323</v>
+      </c>
+      <c r="M30">
+        <v>5904</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2371,15 +2660,25 @@
         <v/>
       </c>
       <c r="J31" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>104</v>
+      </c>
+      <c r="M31">
+        <v>71</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2409,15 +2708,25 @@
         <v>20</v>
       </c>
       <c r="J32">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1823802163833074E-3</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1977068484660672E-3</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>84533</v>
+      </c>
+      <c r="M32">
+        <v>37240</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>47293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2447,15 +2756,25 @@
         <v/>
       </c>
       <c r="J33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>6905</v>
+      </c>
+      <c r="M33">
+        <v>4172</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2485,15 +2804,25 @@
         <v>3</v>
       </c>
       <c r="J34">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5587188612099642E-3</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.592814371257485E-3</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>539</v>
+      </c>
+      <c r="M34">
+        <v>323</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2523,15 +2852,25 @@
         <v>47</v>
       </c>
       <c r="J35">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8994447871684145E-2</v>
+      </c>
+      <c r="K35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9138251704897707E-2</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>77802</v>
+      </c>
+      <c r="M35">
+        <v>49450</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>28352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2561,15 +2900,25 @@
         <v/>
       </c>
       <c r="J36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>223068</v>
+      </c>
+      <c r="M36">
+        <v>156647</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>66421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2599,15 +2948,25 @@
         <v>57</v>
       </c>
       <c r="J37">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5480717001629549E-2</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5514425694066412E-2</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>530874</v>
+      </c>
+      <c r="M37">
+        <v>305554</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>225320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2637,15 +2996,25 @@
         <v/>
       </c>
       <c r="J38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>111</v>
+      </c>
+      <c r="M38">
+        <v>74</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2675,15 +3044,25 @@
         <v>28</v>
       </c>
       <c r="J39">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.3529411764705881E-3</v>
+      </c>
+      <c r="K39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3684210526315788E-3</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>72524</v>
+      </c>
+      <c r="M39">
+        <v>38515</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>34009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2713,15 +3092,25 @@
         <v/>
       </c>
       <c r="J40" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>325</v>
+      </c>
+      <c r="M40">
+        <v>173</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2751,15 +3140,25 @@
         <v>31</v>
       </c>
       <c r="J41">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9375E-2</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9472361809045227E-2</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>22566</v>
+      </c>
+      <c r="M41">
+        <v>15599</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>6967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2789,15 +3188,25 @@
         <v>33</v>
       </c>
       <c r="J42">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3617021276595751E-3</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.382996872334376E-3</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>14700</v>
+      </c>
+      <c r="M42">
+        <v>10583</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2827,15 +3236,25 @@
         <v>2</v>
       </c>
       <c r="J43">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9646365422396855E-3</v>
+      </c>
+      <c r="K43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9801980198019802E-3</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>2504</v>
+      </c>
+      <c r="M43">
+        <v>1748</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2865,15 +3284,25 @@
         <v/>
       </c>
       <c r="J44" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>6002</v>
+      </c>
+      <c r="M44">
+        <v>4183</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2903,15 +3332,25 @@
         <v/>
       </c>
       <c r="J45" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>551</v>
+      </c>
+      <c r="M45">
+        <v>425</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2941,15 +3380,25 @@
         <v>10</v>
       </c>
       <c r="J46">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="K46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2123893805309734E-2</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>448</v>
+      </c>
+      <c r="M46">
+        <v>353</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2979,15 +3428,25 @@
         <v/>
       </c>
       <c r="J47" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K47" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>3756</v>
+      </c>
+      <c r="M47">
+        <v>2107</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3017,15 +3476,25 @@
         <v>39</v>
       </c>
       <c r="J48">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5674786043449638E-2</v>
+      </c>
+      <c r="K48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5810721376571807E-2</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>818195</v>
+      </c>
+      <c r="M48">
+        <v>560677</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>257518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3055,15 +3524,25 @@
         <v/>
       </c>
       <c r="J49" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>7009</v>
+      </c>
+      <c r="M49">
+        <v>5137</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3093,15 +3572,25 @@
         <v/>
       </c>
       <c r="J50" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K50" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>5933</v>
+      </c>
+      <c r="M50">
+        <v>3240</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3131,15 +3620,25 @@
         <v/>
       </c>
       <c r="J51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>6917</v>
+      </c>
+      <c r="M51">
+        <v>4111</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3169,15 +3668,25 @@
         <v>49</v>
       </c>
       <c r="J52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3908600624467783E-2</v>
+      </c>
+      <c r="K52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3940256045519203E-2</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>685287</v>
+      </c>
+      <c r="M52">
+        <v>541417</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>143870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3207,15 +3716,25 @@
         <v>12</v>
       </c>
       <c r="J53">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.11663807890223E-3</v>
+      </c>
+      <c r="K53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1279669762641896E-3</v>
-      </c>
-      <c r="K53" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>115144</v>
+      </c>
+      <c r="M53">
+        <v>69910</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3245,15 +3764,25 @@
         <v>33</v>
       </c>
       <c r="J54">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3431483578708951E-3</v>
+      </c>
+      <c r="K54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3643586833144152E-3</v>
-      </c>
-      <c r="K54" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>114199</v>
+      </c>
+      <c r="M54">
+        <v>69122</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3283,15 +3812,25 @@
         <v>1</v>
       </c>
       <c r="J55">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0405827263267431E-3</v>
+      </c>
+      <c r="K55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0493179433368311E-3</v>
-      </c>
-      <c r="K55" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>2761</v>
+      </c>
+      <c r="M55">
+        <v>1641</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3321,15 +3860,25 @@
         <v/>
       </c>
       <c r="J56" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K56" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>436572</v>
+      </c>
+      <c r="M56">
+        <v>399731</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>36841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3359,15 +3908,25 @@
         <v/>
       </c>
       <c r="J57" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K57" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>27168</v>
+      </c>
+      <c r="M57">
+        <v>19501</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3397,15 +3956,25 @@
         <v>88</v>
       </c>
       <c r="J58">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.4897959183673466E-2</v>
+      </c>
+      <c r="K58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5081967213114756E-2</v>
-      </c>
-      <c r="K58" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>1353</v>
+      </c>
+      <c r="M58">
+        <v>833</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3435,15 +4004,25 @@
         <v/>
       </c>
       <c r="J59" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K59" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>21413</v>
+      </c>
+      <c r="M59">
+        <v>10419</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>10994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3473,15 +4052,25 @@
         <v/>
       </c>
       <c r="J60" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K60" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>13877</v>
+      </c>
+      <c r="M60">
+        <v>13673</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3511,15 +4100,25 @@
         <v/>
       </c>
       <c r="J61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K61" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>30063</v>
+      </c>
+      <c r="M61">
+        <v>23810</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3549,15 +4148,25 @@
         <v/>
       </c>
       <c r="J62" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K62" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3587,15 +4196,25 @@
         <v/>
       </c>
       <c r="J63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="K63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K63" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>39205</v>
+      </c>
+      <c r="M63">
+        <v>33745</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3625,15 +4244,25 @@
         <v>1</v>
       </c>
       <c r="J64">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0298661174047373E-3</v>
+      </c>
+      <c r="K64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0384215991692627E-3</v>
-      </c>
-      <c r="K64" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>1787</v>
+      </c>
+      <c r="M64">
+        <v>1114</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3663,15 +4292,25 @@
         <v>2</v>
       </c>
       <c r="J65">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9586152009550337E-4</v>
+      </c>
+      <c r="K65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9840319361277441E-4</v>
-      </c>
-      <c r="K65" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>260750</v>
+      </c>
+      <c r="M65">
+        <v>219226</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>41524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3701,15 +4340,25 @@
         <v>26</v>
       </c>
       <c r="J66">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3340174448435094E-2</v>
+      </c>
+      <c r="K66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3395157135497167E-2</v>
-      </c>
-      <c r="K66" s="4">
-        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>4831</v>
+      </c>
+      <c r="M66">
+        <v>3012</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3735,19 +4384,29 @@
         <v>3</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I101" si="3">IF(H67&gt;0,H67,"")</f>
+        <f t="shared" ref="I67:I101" si="4">IF(H67&gt;0,H67,"")</f>
         <v>3</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J101" ca="1" si="4">IF(I67&lt;&gt;"",I67/DATEDIF(B67,TODAY(),"D"),"")</f>
-        <v>1.5682174594877157E-3</v>
+        <f t="shared" ref="J67:J101" ca="1" si="5">IF(I67&lt;&gt;"",I67/DATEDIF(B67,TODAY(),"D"),"")</f>
+        <v>1.5616866215512754E-3</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" ref="K67:K101" ca="1" si="5">DATEDIF(B67,TODAY(),"Y")</f>
+        <f t="shared" ref="K67:K101" ca="1" si="6">DATEDIF(B67,TODAY(),"Y")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>157348</v>
+      </c>
+      <c r="M67">
+        <v>93373</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N101" si="7">L67-M67</f>
+        <v>63975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3773,19 +4432,29 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7687172150691462E-4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7505938242280285E-4</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>11991</v>
+      </c>
+      <c r="M68">
+        <v>7398</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="7"/>
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3811,19 +4480,29 @@
         <v>61</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="J69">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.2097998619737752E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1866849691146193E-2</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>207285</v>
+      </c>
+      <c r="M69">
+        <v>181980</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="7"/>
+        <v>25305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3849,19 +4528,29 @@
         <v>0</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K70" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>502</v>
+      </c>
+      <c r="M70">
+        <v>310</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3887,19 +4576,29 @@
         <v>15</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J71">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.7670126874279125E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.7493292449214261E-3</v>
       </c>
       <c r="K71" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>10614</v>
+      </c>
+      <c r="M71">
+        <v>7168</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="7"/>
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3925,19 +4624,29 @@
         <v>7</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J72">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.2475728155339804E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.227053140096618E-3</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>19679</v>
+      </c>
+      <c r="M72">
+        <v>10142</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="7"/>
+        <v>9537</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3963,19 +4672,29 @@
         <v>129</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="J73">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.297741273100616E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2803929594760539E-2</v>
       </c>
       <c r="K73" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>162499</v>
+      </c>
+      <c r="M73">
+        <v>117709</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="7"/>
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4001,19 +4720,29 @@
         <v>4</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J74">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8181818181818182E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8115942028985507E-3</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>38610</v>
+      </c>
+      <c r="M74">
+        <v>26482</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="7"/>
+        <v>12128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4039,19 +4768,29 @@
         <v>0</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J75" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K75" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>78</v>
+      </c>
+      <c r="M75">
+        <v>57</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4077,19 +4816,29 @@
         <v>42</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="J76">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5048369759942674E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5005359056806002E-2</v>
       </c>
       <c r="K76" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>168171</v>
+      </c>
+      <c r="M76">
+        <v>124085</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="7"/>
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4115,19 +4864,29 @@
         <v>0</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J77" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K77" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>149078</v>
+      </c>
+      <c r="M77">
+        <v>98448</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="7"/>
+        <v>50630</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -4153,19 +4912,29 @@
         <v>2</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J78">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1049723756906077E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0582010582010581E-2</v>
       </c>
       <c r="K78" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>1490</v>
+      </c>
+      <c r="M78">
+        <v>1087</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="7"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4191,19 +4960,29 @@
         <v>0</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J79" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K79" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>8150</v>
+      </c>
+      <c r="M79">
+        <v>4897</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="7"/>
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4229,19 +5008,29 @@
         <v>0</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J80" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K80" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>5434</v>
+      </c>
+      <c r="M80">
+        <v>4188</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="7"/>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4267,19 +5056,29 @@
         <v>12</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="J81">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.4150943396226415E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4018691588785047E-2</v>
       </c>
       <c r="K81" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>9334</v>
+      </c>
+      <c r="M81">
+        <v>8242</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="7"/>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4305,19 +5104,29 @@
         <v>0</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K82" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>31716</v>
+      </c>
+      <c r="M82">
+        <v>16004</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="7"/>
+        <v>15712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4343,19 +5152,29 @@
         <v>0</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J83" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K83" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L83">
+        <v>11809</v>
+      </c>
+      <c r="M83">
+        <v>8124</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="7"/>
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4381,19 +5200,29 @@
         <v>0</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J84" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K84" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>37048</v>
+      </c>
+      <c r="M84">
+        <v>29929</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="7"/>
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4419,19 +5248,29 @@
         <v>0</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J85" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K85" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>5797</v>
+      </c>
+      <c r="M85">
+        <v>3076</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="7"/>
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4457,19 +5296,29 @@
         <v>77</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="J86">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.7819253438113952E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.7671232876712327E-2</v>
       </c>
       <c r="K86" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>26088</v>
+      </c>
+      <c r="M86">
+        <v>18936</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="7"/>
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4495,19 +5344,29 @@
         <v>0</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J87" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K87" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>1670</v>
+      </c>
+      <c r="M87">
+        <v>1254</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="7"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4533,19 +5392,29 @@
         <v>12</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="J88">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.7037037037037038E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6945812807881772E-3</v>
       </c>
       <c r="K88" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L88">
+        <v>2003</v>
+      </c>
+      <c r="M88">
+        <v>1448</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="7"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4571,19 +5440,29 @@
         <v>191</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>191</v>
       </c>
       <c r="J89">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.1109456440804172E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.0898292501855975E-2</v>
       </c>
       <c r="K89" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>656665</v>
+      </c>
+      <c r="M89">
+        <v>520064</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="7"/>
+        <v>136601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4609,19 +5488,29 @@
         <v>0</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J90" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K90" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>23980</v>
+      </c>
+      <c r="M90">
+        <v>17860</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="7"/>
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4647,19 +5536,29 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="J91">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5510964004964833E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.536082474226804E-3</v>
       </c>
       <c r="K91" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91">
+        <v>7325</v>
+      </c>
+      <c r="M91">
+        <v>5045</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="7"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4685,19 +5584,29 @@
         <v>0</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J92" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K92" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L92">
+        <v>40944</v>
+      </c>
+      <c r="M92">
+        <v>35886</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="7"/>
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4723,19 +5632,29 @@
         <v>1</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J93">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.4064697609001407E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3908205841446453E-3</v>
       </c>
       <c r="K93" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93">
+        <v>19619</v>
+      </c>
+      <c r="M93">
+        <v>14389</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="7"/>
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4761,21 +5680,31 @@
         <v>114</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="J94">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1267142073505214E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1198686371100164E-2</v>
       </c>
       <c r="K94" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L94">
+        <v>45430</v>
+      </c>
+      <c r="M94">
+        <v>34521</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="7"/>
+        <v>10909</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B95" s="1">
         <v>43382</v>
@@ -4799,21 +5728,21 @@
         <v>5</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J95">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8870523415977963E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.8119891008174387E-3</v>
       </c>
       <c r="K95" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1">
         <v>42979</v>
@@ -4837,21 +5766,31 @@
         <v>0</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J96" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K96" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96">
+        <v>62229</v>
+      </c>
+      <c r="M96">
+        <v>45558</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="7"/>
+        <v>16671</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="1">
         <v>42311</v>
@@ -4875,21 +5814,31 @@
         <v>22</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J97">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.2242626599888704E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.218836565096953E-2</v>
       </c>
       <c r="K97" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97">
+        <v>22675</v>
+      </c>
+      <c r="M97">
+        <v>15317</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="7"/>
+        <v>7358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1">
         <v>43326</v>
@@ -4913,21 +5862,31 @@
         <v>0</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J98" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K98" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98">
+        <v>7031</v>
+      </c>
+      <c r="M98">
+        <v>5424</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="7"/>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1">
         <v>43136</v>
@@ -4951,21 +5910,31 @@
         <v>0</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J99" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K99" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99">
+        <v>234</v>
+      </c>
+      <c r="M99">
+        <v>147</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="1">
         <v>40732</v>
@@ -4989,21 +5958,31 @@
         <v>23</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="J100">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8127962085308058E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.7966903073286055E-3</v>
       </c>
       <c r="K100" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100">
+        <v>1675</v>
+      </c>
+      <c r="M100">
+        <v>970</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="7"/>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="1">
         <v>40468</v>
@@ -5027,21 +6006,31 @@
         <v>7</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J101">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9230769230769232E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9188596491228069E-3</v>
       </c>
       <c r="K101" s="4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101">
+        <v>20270</v>
+      </c>
+      <c r="M101">
+        <v>13055</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="7"/>
+        <v>7215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="1">
         <f>MAX(B2:B101)</f>
@@ -5049,38 +6038,50 @@
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="3">
-        <f t="shared" ref="D104:J104" si="6">MAX(D2:D101)</f>
+        <f t="shared" ref="D104:J104" si="8">MAX(D2:D101)</f>
         <v>108455</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40193</v>
       </c>
       <c r="G104" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5205</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>301</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>301</v>
       </c>
       <c r="J104" s="4">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.3011583011583012E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.2828838745184374E-2</v>
       </c>
       <c r="K104" s="4">
-        <f t="shared" ref="K104" ca="1" si="7">MAX(K2:K101)</f>
+        <f t="shared" ref="K104:N104" ca="1" si="9">MAX(K2:K101)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104" s="4">
+        <f t="shared" si="9"/>
+        <v>818195</v>
+      </c>
+      <c r="M104" s="4">
+        <f t="shared" si="9"/>
+        <v>560677</v>
+      </c>
+      <c r="N104" s="4">
+        <f t="shared" si="9"/>
+        <v>257518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1">
         <f>MIN(B2:B101)</f>
@@ -5088,38 +6089,50 @@
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="3">
-        <f t="shared" ref="D105:J105" si="8">MIN(D2:D101)</f>
+        <f t="shared" ref="D105:J105" si="10">MIN(D2:D101)</f>
         <v>7284</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>341</v>
       </c>
       <c r="G105" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J105" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.7687172150691462E-4</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.7505938242280285E-4</v>
       </c>
       <c r="K105" s="4">
-        <f t="shared" ref="K105" ca="1" si="9">MIN(K2:K101)</f>
+        <f t="shared" ref="K105:N105" ca="1" si="11">MIN(K2:K101)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="M105" s="4">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="N105" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1">
         <f>AVERAGE(B2:B101)</f>
@@ -5127,75 +6140,99 @@
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="3">
-        <f t="shared" ref="D106:J106" si="10">AVERAGE(D2:D101)</f>
+        <f t="shared" ref="D106:J106" si="12">AVERAGE(D2:D101)</f>
         <v>17813.53</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3774.69</v>
       </c>
       <c r="G106" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>737.54</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17.64</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31.5</v>
       </c>
       <c r="J106" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3162307275248199E-2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1.3099839810741091E-2</v>
       </c>
       <c r="K106" s="4">
-        <f t="shared" ref="K106" ca="1" si="11">AVERAGE(K2:K101)</f>
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K106:N106" ca="1" si="13">AVERAGE(K2:K101)</f>
+        <v>5.17</v>
+      </c>
+      <c r="L106" s="4">
+        <f t="shared" si="13"/>
+        <v>92088.350515463913</v>
+      </c>
+      <c r="M106" s="4">
+        <f t="shared" si="13"/>
+        <v>66238.257731958758</v>
+      </c>
+      <c r="N106" s="4">
+        <f t="shared" si="13"/>
+        <v>25850.092783505155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <f>_xlfn.STDEV.S(B2:B101)</f>
         <v>1053.6995053504379</v>
       </c>
       <c r="D107" s="3">
-        <f t="shared" ref="D107:J107" si="12">_xlfn.STDEV.S(D2:D101)</f>
+        <f t="shared" ref="D107:J107" si="14">_xlfn.STDEV.S(D2:D101)</f>
         <v>15668.419753917417</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5426.3620115789436</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>750.14932412476958</v>
       </c>
       <c r="H107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41.472765799139836</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51.492276561194551</v>
       </c>
       <c r="J107" s="4">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.7289951557729156E-2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1.7235108811156381E-2</v>
       </c>
       <c r="K107" s="4">
-        <f t="shared" ref="K107" ca="1" si="13">_xlfn.STDEV.S(K2:K101)</f>
-        <v>2.8942820676065226</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K107:N107" ca="1" si="15">_xlfn.STDEV.S(K2:K101)</f>
+        <v>2.8886926895302407</v>
+      </c>
+      <c r="L107" s="4">
+        <f t="shared" si="15"/>
+        <v>172118.18166288637</v>
+      </c>
+      <c r="M107" s="4">
+        <f t="shared" si="15"/>
+        <v>126477.76724350265</v>
+      </c>
+      <c r="N107" s="4">
+        <f t="shared" si="15"/>
+        <v>50461.484190519521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="1">
         <f>MEDIAN(B2:B101)</f>
@@ -5203,33 +6240,45 @@
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="3">
-        <f t="shared" ref="D108:J108" si="14">MEDIAN(D2:D101)</f>
+        <f t="shared" ref="D108:J108" si="16">MEDIAN(D2:D101)</f>
         <v>12299.5</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1955.5</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>493.5</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="J108" s="4">
-        <f t="shared" ca="1" si="14"/>
-        <v>7.127736697114688E-3</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>7.0824651386440134E-3</v>
       </c>
       <c r="K108" s="4">
-        <f t="shared" ref="K108" ca="1" si="15">MEDIAN(K2:K101)</f>
+        <f t="shared" ref="K108:N108" ca="1" si="17">MEDIAN(K2:K101)</f>
         <v>5</v>
+      </c>
+      <c r="L108" s="4">
+        <f t="shared" si="17"/>
+        <v>16486</v>
+      </c>
+      <c r="M108" s="4">
+        <f t="shared" si="17"/>
+        <v>10419</v>
+      </c>
+      <c r="N108" s="4">
+        <f t="shared" si="17"/>
+        <v>4403</v>
       </c>
     </row>
   </sheetData>
